--- a/data/trans_orig/P1408-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E81BE29-1018-43A1-A85C-80D0AD8A84BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B0C65EE-574E-457D-9EC0-EDA203EB53BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{168FBBD5-9260-4E14-8AB4-E943121452F7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CCB2A182-71D3-4B92-9DC2-9BF3F831C11C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="552">
   <si>
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,22 +95,25 @@
     <t>3,54%</t>
   </si>
   <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -119,25 +122,28 @@
     <t>96,46%</t>
   </si>
   <si>
-    <t>93,61%</t>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>99,01%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,1513 +164,1537 @@
     <t>4,91%</t>
   </si>
   <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>97,48%</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912B7EE0-A4E7-4196-B813-DAD713BEEE0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A4A0CD-8BDC-4757-90E6-40FA7ED00EBF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2287,13 +2317,13 @@
         <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>261</v>
@@ -2302,13 +2332,13 @@
         <v>263355</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>244</v>
@@ -2317,13 +2347,13 @@
         <v>259819</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>505</v>
@@ -2332,13 +2362,13 @@
         <v>523173</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2383,13 @@
         <v>273010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>245</v>
@@ -2368,13 +2398,13 @@
         <v>260838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>516</v>
@@ -2383,18 +2413,18 @@
         <v>533848</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2412,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2427,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2442,7 +2472,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,13 +2487,13 @@
         <v>24212</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -2472,13 +2502,13 @@
         <v>18709</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>41</v>
@@ -2487,19 +2517,19 @@
         <v>42921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>443</v>
@@ -2508,13 +2538,13 @@
         <v>468863</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>480</v>
@@ -2523,13 +2553,13 @@
         <v>485240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>923</v>
@@ -2538,13 +2568,13 @@
         <v>954103</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2589,13 @@
         <v>493075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>499</v>
@@ -2574,13 +2604,13 @@
         <v>503949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>964</v>
@@ -2589,18 +2619,18 @@
         <v>997024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2618,7 +2648,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2633,7 +2663,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2648,7 +2678,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2693,13 @@
         <v>13045</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -2678,13 +2708,13 @@
         <v>3085</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2693,19 +2723,19 @@
         <v>16130</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>297</v>
@@ -2714,13 +2744,13 @@
         <v>305801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -2729,13 +2759,13 @@
         <v>332327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>629</v>
@@ -2744,13 +2774,13 @@
         <v>638128</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2795,13 @@
         <v>318846</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>335</v>
@@ -2780,13 +2810,13 @@
         <v>335412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>645</v>
@@ -2795,18 +2825,18 @@
         <v>654258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2824,7 +2854,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2839,7 +2869,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2854,7 +2884,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2899,13 @@
         <v>15265</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2884,13 +2914,13 @@
         <v>6271</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -2899,19 +2929,19 @@
         <v>21537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>346</v>
@@ -2920,13 +2950,13 @@
         <v>343406</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>378</v>
@@ -2935,13 +2965,13 @@
         <v>365185</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>724</v>
@@ -2950,13 +2980,13 @@
         <v>708590</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +3001,13 @@
         <v>358671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>384</v>
@@ -2986,13 +3016,13 @@
         <v>371456</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>746</v>
@@ -3001,18 +3031,18 @@
         <v>730127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3030,7 +3060,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3045,7 +3075,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3060,7 +3090,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3105,13 @@
         <v>8522</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -3090,13 +3120,13 @@
         <v>8778</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -3105,19 +3135,19 @@
         <v>17300</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>197</v>
@@ -3126,13 +3156,13 @@
         <v>194786</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -3141,13 +3171,13 @@
         <v>198890</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>387</v>
@@ -3156,13 +3186,13 @@
         <v>393676</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3207,13 @@
         <v>203308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>198</v>
@@ -3192,13 +3222,13 @@
         <v>207668</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>404</v>
@@ -3207,18 +3237,18 @@
         <v>410976</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3236,7 +3266,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3266,7 +3296,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3311,13 @@
         <v>5625</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3296,13 +3326,13 @@
         <v>3385</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -3311,19 +3341,19 @@
         <v>9011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>260</v>
@@ -3365,10 +3395,10 @@
         <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3413,13 @@
         <v>270811</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -3398,13 +3428,13 @@
         <v>278144</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>536</v>
@@ -3413,18 +3443,18 @@
         <v>548955</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3442,7 +3472,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3457,7 +3487,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3472,7 +3502,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3517,13 @@
         <v>27247</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -3502,13 +3532,13 @@
         <v>21310</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -3517,19 +3547,19 @@
         <v>48557</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>568</v>
@@ -3571,10 +3601,10 @@
         <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3619,13 @@
         <v>615027</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>621</v>
@@ -3604,13 +3634,13 @@
         <v>638219</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1219</v>
@@ -3619,18 +3649,18 @@
         <v>1253246</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3648,7 +3678,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3663,7 +3693,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3678,7 +3708,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3723,13 @@
         <v>32447</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H33" s="7">
         <v>27</v>
@@ -3708,13 +3738,13 @@
         <v>28976</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M33" s="7">
         <v>59</v>
@@ -3723,10 +3753,10 @@
         <v>61423</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>172</v>
@@ -3735,7 +3765,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>704</v>
@@ -3780,7 +3810,7 @@
         <v>180</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>181</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3825,13 @@
         <v>743795</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>745</v>
@@ -3810,13 +3840,13 @@
         <v>783511</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1481</v>
@@ -3825,13 +3855,13 @@
         <v>1527306</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3884,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3869,7 +3899,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3884,7 +3914,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,10 +3929,10 @@
         <v>136019</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>185</v>
@@ -3941,7 +3971,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>3076</v>
@@ -3956,7 +3986,7 @@
         <v>193</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="H38" s="7">
         <v>3209</v>
@@ -3965,28 +3995,28 @@
         <v>3287664</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M38" s="7">
         <v>6285</v>
       </c>
       <c r="N38" s="7">
-        <v>6428186</v>
+        <v>6428187</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +4031,13 @@
         <v>3276544</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>3297</v>
@@ -4016,33 +4046,33 @@
         <v>3379198</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4066,7 +4096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1016B8A5-C808-4879-BCE6-4CFB449F18FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4756E0-45AE-4660-ACCA-C2763787A5D9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4083,7 +4113,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4188,39 +4218,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,84 +4263,84 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,44 +4353,44 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4378,7 +4408,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4393,7 +4423,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4408,7 +4438,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4453,13 @@
         <v>16486</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -4438,13 +4468,13 @@
         <v>6334</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4453,7 +4483,7 @@
         <v>22820</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>210</v>
@@ -4465,7 +4495,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>457</v>
@@ -4492,10 +4522,10 @@
         <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>931</v>
@@ -4504,13 +4534,13 @@
         <v>1006472</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,13 +4555,13 @@
         <v>505527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>480</v>
@@ -4540,13 +4570,13 @@
         <v>523765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>952</v>
@@ -4555,18 +4585,18 @@
         <v>1029292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4584,7 +4614,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4599,7 +4629,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4614,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,10 +4659,10 @@
         <v>7501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>222</v>
@@ -4647,10 +4677,10 @@
         <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -4659,19 +4689,19 @@
         <v>12738</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>312</v>
@@ -4680,7 +4710,7 @@
         <v>316545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>228</v>
@@ -4710,13 +4740,13 @@
         <v>652328</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4761,13 @@
         <v>324046</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -4746,13 +4776,13 @@
         <v>341020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>636</v>
@@ -4761,18 +4791,18 @@
         <v>665066</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4790,7 +4820,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4805,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4820,7 +4850,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4865,13 @@
         <v>14494</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4850,13 +4880,13 @@
         <v>14202</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4865,19 +4895,19 @@
         <v>28696</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>613</v>
@@ -4886,10 +4916,10 @@
         <v>654226</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>136</v>
@@ -4901,13 +4931,13 @@
         <v>661994</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M18" s="7">
         <v>1227</v>
@@ -4916,10 +4946,10 @@
         <v>1316220</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>250</v>
@@ -4937,13 +4967,13 @@
         <v>668720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>627</v>
@@ -4952,13 +4982,13 @@
         <v>676196</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1253</v>
@@ -4967,18 +4997,18 @@
         <v>1344916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4996,7 +5026,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5011,7 +5041,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5026,7 +5056,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,10 +5074,10 @@
         <v>223</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5056,13 +5086,13 @@
         <v>970</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>256</v>
+        <v>91</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5071,19 +5101,19 @@
         <v>4240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>193</v>
@@ -5095,10 +5125,10 @@
         <v>230</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>211</v>
@@ -5107,13 +5137,13 @@
         <v>218621</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M22" s="7">
         <v>404</v>
@@ -5122,13 +5152,13 @@
         <v>427969</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5173,13 @@
         <v>212618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>212</v>
@@ -5158,13 +5188,13 @@
         <v>219591</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>408</v>
@@ -5173,18 +5203,18 @@
         <v>432209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5202,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5232,7 +5262,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5277,13 @@
         <v>12610</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5262,13 +5292,13 @@
         <v>2961</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5277,19 +5307,19 @@
         <v>15571</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>250</v>
@@ -5298,13 +5328,13 @@
         <v>261371</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -5313,13 +5343,13 @@
         <v>275135</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -5328,13 +5358,13 @@
         <v>536506</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5379,13 @@
         <v>273981</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>268</v>
@@ -5364,13 +5394,13 @@
         <v>278096</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>529</v>
@@ -5379,18 +5409,18 @@
         <v>552077</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5408,7 +5438,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5423,7 +5453,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5438,7 +5468,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5483,13 @@
         <v>7164</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5468,13 +5498,13 @@
         <v>7356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -5483,19 +5513,19 @@
         <v>14520</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>611</v>
@@ -5504,13 +5534,13 @@
         <v>655624</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>290</v>
+        <v>73</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H30" s="7">
         <v>629</v>
@@ -5519,13 +5549,13 @@
         <v>686497</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="M30" s="7">
         <v>1240</v>
@@ -5534,13 +5564,13 @@
         <v>1342121</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5585,13 @@
         <v>662788</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>636</v>
@@ -5570,13 +5600,13 @@
         <v>693853</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1254</v>
@@ -5585,18 +5615,18 @@
         <v>1356641</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5614,7 +5644,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5629,7 +5659,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5644,7 +5674,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5689,13 @@
         <v>12129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -5674,13 +5704,13 @@
         <v>5408</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M33" s="7">
         <v>15</v>
@@ -5689,19 +5719,19 @@
         <v>17537</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>707</v>
@@ -5710,13 +5740,13 @@
         <v>766969</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="H34" s="7">
         <v>750</v>
@@ -5725,13 +5755,13 @@
         <v>815987</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="M34" s="7">
         <v>1457</v>
@@ -5740,13 +5770,13 @@
         <v>1582956</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>310</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5791,13 @@
         <v>779098</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -5776,13 +5806,13 @@
         <v>821395</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1472</v>
@@ -5791,13 +5821,13 @@
         <v>1600493</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,7 +5850,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5835,7 +5865,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5850,7 +5880,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5895,13 @@
         <v>73653</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -5880,13 +5910,13 @@
         <v>42468</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="M37" s="7">
         <v>106</v>
@@ -5895,19 +5925,19 @@
         <v>116121</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>3143</v>
@@ -5916,13 +5946,13 @@
         <v>3353126</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H38" s="7">
         <v>3255</v>
@@ -5931,13 +5961,13 @@
         <v>3511448</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M38" s="7">
         <v>6398</v>
@@ -5946,13 +5976,13 @@
         <v>6864573</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5997,13 @@
         <v>3426779</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>3295</v>
@@ -5982,13 +6012,13 @@
         <v>3553916</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>6504</v>
@@ -5997,18 +6027,18 @@
         <v>6980694</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6032,7 +6062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEA03BD-494E-4273-A283-9C793D69A843}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93C67CE-4702-4D98-95AD-4014DBCE79D2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6049,7 +6079,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6162,7 +6192,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6177,7 +6207,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6192,7 +6222,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6207,13 +6237,13 @@
         <v>7283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6222,13 +6252,13 @@
         <v>1795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -6237,19 +6267,19 @@
         <v>9079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>45</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>260</v>
@@ -6258,13 +6288,13 @@
         <v>286478</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>327</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>229</v>
+        <v>329</v>
       </c>
       <c r="H6" s="7">
         <v>275</v>
@@ -6273,13 +6303,13 @@
         <v>286908</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>535</v>
@@ -6288,13 +6318,13 @@
         <v>573385</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6339,13 @@
         <v>293761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>277</v>
@@ -6324,13 +6354,13 @@
         <v>288703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>543</v>
@@ -6339,18 +6369,18 @@
         <v>582464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6368,7 +6398,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6383,7 +6413,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6398,7 +6428,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,13 +6443,13 @@
         <v>13283</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -6431,10 +6461,10 @@
         <v>337</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -6443,19 +6473,19 @@
         <v>21007</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>462</v>
@@ -6464,13 +6494,13 @@
         <v>489292</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>477</v>
@@ -6479,13 +6509,13 @@
         <v>515360</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>97</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>939</v>
@@ -6494,13 +6524,13 @@
         <v>1004652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,13 +6545,13 @@
         <v>502575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>484</v>
@@ -6530,13 +6560,13 @@
         <v>523084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>959</v>
@@ -6545,18 +6575,18 @@
         <v>1025659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6574,7 +6604,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6589,7 +6619,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6604,7 +6634,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,13 +6649,13 @@
         <v>4305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6634,13 +6664,13 @@
         <v>3415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>23</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6649,19 +6679,19 @@
         <v>7720</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>330</v>
@@ -6670,13 +6700,13 @@
         <v>314260</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>329</v>
@@ -6685,7 +6715,7 @@
         <v>332894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>34</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>356</v>
@@ -6721,13 +6751,13 @@
         <v>318565</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>332</v>
@@ -6736,13 +6766,13 @@
         <v>336309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>667</v>
@@ -6751,18 +6781,18 @@
         <v>654874</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6795,7 +6825,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6810,7 +6840,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,7 +6870,7 @@
         <v>5246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>365</v>
@@ -6855,19 +6885,19 @@
         <v>14804</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>344</v>
@@ -6876,13 +6906,13 @@
         <v>360406</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H18" s="7">
         <v>353</v>
@@ -6891,13 +6921,13 @@
         <v>382037</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>353</v>
+        <v>250</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M18" s="7">
         <v>697</v>
@@ -6906,13 +6936,13 @@
         <v>742443</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>373</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>374</v>
+        <v>233</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6927,13 +6957,13 @@
         <v>369964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>358</v>
@@ -6942,13 +6972,13 @@
         <v>387283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>712</v>
@@ -6957,18 +6987,18 @@
         <v>757247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6986,7 +7016,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7001,7 +7031,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7016,7 +7046,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,10 +7064,10 @@
         <v>187</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>377</v>
+        <v>14</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -7046,13 +7076,13 @@
         <v>2005</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -7061,19 +7091,19 @@
         <v>6645</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>207</v>
@@ -7082,13 +7112,13 @@
         <v>206581</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>221</v>
@@ -7097,13 +7127,13 @@
         <v>216582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M22" s="7">
         <v>428</v>
@@ -7112,13 +7142,13 @@
         <v>423163</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,13 +7163,13 @@
         <v>211221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>223</v>
@@ -7148,13 +7178,13 @@
         <v>218587</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>435</v>
@@ -7163,18 +7193,18 @@
         <v>429808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7192,7 +7222,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7207,7 +7237,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>263</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7240,10 +7270,10 @@
         <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>387</v>
+        <v>184</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7252,13 +7282,13 @@
         <v>4415</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -7267,19 +7297,19 @@
         <v>8298</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>190</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>255</v>
@@ -7288,13 +7318,13 @@
         <v>259240</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>390</v>
+        <v>194</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -7303,13 +7333,13 @@
         <v>268700</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>282</v>
+        <v>388</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M26" s="7">
         <v>514</v>
@@ -7318,10 +7348,10 @@
         <v>527940</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>199</v>
+        <v>391</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>135</v>
@@ -7339,13 +7369,13 @@
         <v>263123</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>263</v>
@@ -7354,13 +7384,13 @@
         <v>273115</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>522</v>
@@ -7369,18 +7399,18 @@
         <v>536238</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7398,7 +7428,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7413,7 +7443,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7428,7 +7458,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7473,13 @@
         <v>11415</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -7458,13 +7488,13 @@
         <v>10274</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>399</v>
+        <v>290</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -7473,19 +7503,19 @@
         <v>21689</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>23</v>
+        <v>399</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>570</v>
@@ -7494,13 +7524,13 @@
         <v>645143</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H30" s="7">
         <v>637</v>
@@ -7509,13 +7539,13 @@
         <v>681020</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>407</v>
+        <v>296</v>
       </c>
       <c r="M30" s="7">
         <v>1207</v>
@@ -7524,13 +7554,13 @@
         <v>1326163</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,13 +7575,13 @@
         <v>656558</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>646</v>
@@ -7560,13 +7590,13 @@
         <v>691294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1226</v>
@@ -7575,18 +7605,18 @@
         <v>1347852</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7604,7 +7634,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7619,7 +7649,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7634,7 +7664,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,13 +7679,13 @@
         <v>12113</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>101</v>
+        <v>305</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -7667,10 +7697,10 @@
         <v>409</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>410</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>410</v>
+        <v>220</v>
       </c>
       <c r="M33" s="7">
         <v>22</v>
@@ -7679,19 +7709,19 @@
         <v>22757</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P33" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="Q33" s="7" t="s">
-        <v>286</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>737</v>
@@ -7700,13 +7730,13 @@
         <v>766470</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>412</v>
+        <v>315</v>
       </c>
       <c r="H34" s="7">
         <v>746</v>
@@ -7715,13 +7745,13 @@
         <v>815522</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M34" s="7">
         <v>1483</v>
@@ -7730,13 +7760,13 @@
         <v>1581993</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>415</v>
+        <v>218</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>72</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7781,13 @@
         <v>778583</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>755</v>
@@ -7766,13 +7796,13 @@
         <v>826167</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1505</v>
@@ -7781,13 +7811,13 @@
         <v>1604750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,7 +7840,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7825,7 +7855,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7840,7 +7870,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,13 +7885,13 @@
         <v>66480</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>417</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>83</v>
+        <v>400</v>
       </c>
       <c r="H37" s="7">
         <v>41</v>
@@ -7870,13 +7900,13 @@
         <v>45519</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M37" s="7">
         <v>107</v>
@@ -7885,19 +7915,19 @@
         <v>111999</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>3165</v>
@@ -7906,13 +7936,13 @@
         <v>3327870</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>93</v>
+        <v>407</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H38" s="7">
         <v>3297</v>
@@ -7921,13 +7951,13 @@
         <v>3499023</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M38" s="7">
         <v>6462</v>
@@ -7936,13 +7966,13 @@
         <v>6826893</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,13 +7987,13 @@
         <v>3394350</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>3338</v>
@@ -7972,13 +8002,13 @@
         <v>3544542</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>6569</v>
@@ -7987,18 +8017,18 @@
         <v>6938892</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -8022,7 +8052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D63EC1-BB41-42A3-ADDF-2F60807B55EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAC976-B41C-4316-8102-A93D4545E4EF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8039,7 +8069,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8152,7 +8182,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8167,7 +8197,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8182,7 +8212,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,13 +8227,13 @@
         <v>3625</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>429</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -8212,13 +8242,13 @@
         <v>3836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>432</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>433</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -8227,19 +8257,19 @@
         <v>7462</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>431</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>325</v>
@@ -8248,13 +8278,13 @@
         <v>256673</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="H6" s="7">
         <v>530</v>
@@ -8263,13 +8293,13 @@
         <v>267567</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>437</v>
+        <v>356</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>438</v>
+        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>855</v>
@@ -8278,13 +8308,13 @@
         <v>524238</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>438</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8299,13 +8329,13 @@
         <v>260298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>538</v>
@@ -8314,13 +8344,13 @@
         <v>271403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>869</v>
@@ -8329,18 +8359,18 @@
         <v>531700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -8358,7 +8388,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -8373,7 +8403,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8388,7 +8418,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8403,13 +8433,13 @@
         <v>10765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -8418,13 +8448,13 @@
         <v>10612</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>444</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>443</v>
+        <v>211</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -8436,16 +8466,16 @@
         <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>445</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>370</v>
@@ -8469,13 +8499,13 @@
         <v>541451</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>1068</v>
@@ -8484,13 +8514,13 @@
         <v>1048913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8505,13 +8535,13 @@
         <v>518227</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>713</v>
@@ -8520,13 +8550,13 @@
         <v>552063</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1094</v>
@@ -8535,18 +8565,18 @@
         <v>1070290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -8564,7 +8594,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8579,7 +8609,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8594,7 +8624,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8609,13 +8639,13 @@
         <v>10769</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -8624,10 +8654,10 @@
         <v>12054</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>452</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>453</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>454</v>
@@ -8639,19 +8669,19 @@
         <v>22823</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>455</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>456</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>344</v>
@@ -8663,10 +8693,10 @@
         <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="H14" s="7">
         <v>514</v>
@@ -8675,13 +8705,13 @@
         <v>361230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>459</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>461</v>
       </c>
       <c r="M14" s="7">
         <v>858</v>
@@ -8690,13 +8720,13 @@
         <v>672701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>462</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8711,13 +8741,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
@@ -8726,13 +8756,13 @@
         <v>373284</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>896</v>
@@ -8741,18 +8771,18 @@
         <v>695524</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8770,7 +8800,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8785,7 +8815,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8800,7 +8830,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8815,13 +8845,13 @@
         <v>13199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -8830,13 +8860,13 @@
         <v>14176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>468</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -8845,19 +8875,19 @@
         <v>27375</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>276</v>
@@ -8866,13 +8896,13 @@
         <v>309041</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="H18" s="7">
         <v>579</v>
@@ -8881,13 +8911,13 @@
         <v>414380</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>476</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="M18" s="7">
         <v>855</v>
@@ -8896,13 +8926,13 @@
         <v>723421</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,13 +8947,13 @@
         <v>322240</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>599</v>
@@ -8932,13 +8962,13 @@
         <v>428556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>891</v>
@@ -8947,18 +8977,18 @@
         <v>750796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8976,7 +9006,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -8985,13 +9015,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9000,13 +9030,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9021,13 +9051,13 @@
         <v>3830</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>367</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>487</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>254</v>
+        <v>488</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -9036,13 +9066,13 @@
         <v>3731</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>243</v>
+        <v>489</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>490</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -9051,19 +9081,19 @@
         <v>7561</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>252</v>
+        <v>411</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>273</v>
@@ -9072,13 +9102,13 @@
         <v>192918</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>481</v>
@@ -9087,13 +9117,13 @@
         <v>227315</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>754</v>
@@ -9102,13 +9132,13 @@
         <v>420232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9123,13 +9153,13 @@
         <v>196748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>494</v>
@@ -9138,13 +9168,13 @@
         <v>259063</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>773</v>
@@ -9153,18 +9183,18 @@
         <v>455810</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9182,7 +9212,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9191,13 +9221,13 @@
         <v>718</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>489</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9206,13 +9236,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9227,13 +9257,13 @@
         <v>13080</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>491</v>
+        <v>326</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -9242,13 +9272,13 @@
         <v>10091</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -9257,19 +9287,19 @@
         <v>23171</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>503</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>347</v>
@@ -9278,13 +9308,13 @@
         <v>264143</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>498</v>
+        <v>332</v>
       </c>
       <c r="H26" s="7">
         <v>437</v>
@@ -9293,13 +9323,13 @@
         <v>264813</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>93</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>784</v>
@@ -9308,13 +9338,13 @@
         <v>528956</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9329,13 +9359,13 @@
         <v>277223</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>460</v>
@@ -9344,13 +9374,13 @@
         <v>275622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>831</v>
@@ -9359,18 +9389,18 @@
         <v>552845</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9388,7 +9418,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9403,7 +9433,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9418,7 +9448,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9433,13 +9463,13 @@
         <v>17672</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>505</v>
+        <v>131</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -9448,13 +9478,13 @@
         <v>24144</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>272</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -9463,19 +9493,19 @@
         <v>41816</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>110</v>
+        <v>518</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>578</v>
@@ -9484,13 +9514,13 @@
         <v>608183</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>512</v>
+        <v>139</v>
       </c>
       <c r="H30" s="7">
         <v>925</v>
@@ -9499,13 +9529,13 @@
         <v>778337</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>279</v>
+        <v>156</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="M30" s="7">
         <v>1503</v>
@@ -9514,13 +9544,13 @@
         <v>1386520</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>119</v>
+        <v>523</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9535,13 +9565,13 @@
         <v>625855</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>956</v>
@@ -9550,13 +9580,13 @@
         <v>802481</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>1553</v>
@@ -9565,18 +9595,18 @@
         <v>1428336</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9594,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9603,13 +9633,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9618,13 +9648,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>299</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9639,13 +9669,13 @@
         <v>15943</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>153</v>
+        <v>526</v>
       </c>
       <c r="H33" s="7">
         <v>27</v>
@@ -9654,13 +9684,13 @@
         <v>19031</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>329</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>519</v>
+        <v>431</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>520</v>
+        <v>326</v>
       </c>
       <c r="M33" s="7">
         <v>46</v>
@@ -9669,19 +9699,19 @@
         <v>34973</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>205</v>
+        <v>527</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>521</v>
+        <v>337</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>743</v>
@@ -9690,13 +9720,13 @@
         <v>843485</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>161</v>
+        <v>530</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H34" s="7">
         <v>1034</v>
@@ -9705,13 +9735,13 @@
         <v>846641</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="M34" s="7">
         <v>1777</v>
@@ -9720,13 +9750,13 @@
         <v>1690127</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>526</v>
+        <v>331</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>156</v>
+        <v>535</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>527</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9741,13 +9771,13 @@
         <v>859428</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>1062</v>
@@ -9756,13 +9786,13 @@
         <v>868434</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M35" s="7">
         <v>1824</v>
@@ -9771,13 +9801,13 @@
         <v>1727862</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9800,7 +9830,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -9809,13 +9839,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>528</v>
+        <v>132</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9824,13 +9854,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9845,13 +9875,13 @@
         <v>88883</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>532</v>
+        <v>63</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>45</v>
+        <v>541</v>
       </c>
       <c r="H37" s="7">
         <v>154</v>
@@ -9860,13 +9890,13 @@
         <v>97675</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>543</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="M37" s="7">
         <v>271</v>
@@ -9875,19 +9905,19 @@
         <v>186558</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>65</v>
+        <v>544</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7">
         <v>3256</v>
@@ -9896,13 +9926,13 @@
         <v>3293375</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>121</v>
+        <v>547</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>55</v>
+        <v>548</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>537</v>
+        <v>73</v>
       </c>
       <c r="H38" s="7">
         <v>5198</v>
@@ -9911,13 +9941,13 @@
         <v>3701734</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="M38" s="7">
         <v>8454</v>
@@ -9926,13 +9956,13 @@
         <v>6995110</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>541</v>
+        <v>200</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9947,13 +9977,13 @@
         <v>3382258</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39" s="7">
         <v>5358</v>
@@ -9962,13 +9992,13 @@
         <v>3830906</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M39" s="7">
         <v>8731</v>
@@ -9977,18 +10007,18 @@
         <v>7213164</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1408-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B0C65EE-574E-457D-9EC0-EDA203EB53BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F382293-12C1-4C10-9BAA-56E09DA466D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CCB2A182-71D3-4B92-9DC2-9BF3F831C11C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1F1C93D-82B4-4826-80D9-6600FFEBFA86}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="539">
   <si>
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1560 +95,1527 @@
     <t>3,54%</t>
   </si>
   <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>94,18%</t>
   </si>
   <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
@@ -1670,13 +1637,7 @@
     <t>2,55%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
     <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
   </si>
   <si>
     <t>2,97%</t>
@@ -2106,7 +2067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A4A0CD-8BDC-4757-90E6-40FA7ED00EBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9DBE7B-8988-4801-BA68-6AE8A8B5C0DA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2917,10 +2878,10 @@
         <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -2929,13 +2890,13 @@
         <v>21537</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2911,13 @@
         <v>343406</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>378</v>
@@ -2965,13 +2926,13 @@
         <v>365185</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>724</v>
@@ -2980,13 +2941,13 @@
         <v>708590</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,7 +3003,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3060,7 +3021,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3075,7 +3036,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3090,7 +3051,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3066,13 @@
         <v>8522</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -3120,13 +3081,13 @@
         <v>8778</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -3135,13 +3096,13 @@
         <v>17300</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3117,13 @@
         <v>194786</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -3171,13 +3132,13 @@
         <v>198890</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>387</v>
@@ -3186,13 +3147,13 @@
         <v>393676</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,7 +3209,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3266,7 +3227,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3296,7 +3257,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3272,13 @@
         <v>5625</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3326,13 +3287,13 @@
         <v>3385</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -3341,13 +3302,13 @@
         <v>9011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3323,13 @@
         <v>265186</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="H26" s="7">
         <v>267</v>
@@ -3377,13 +3338,13 @@
         <v>274759</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>527</v>
@@ -3392,13 +3353,13 @@
         <v>539944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,7 +3415,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3472,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3487,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3502,7 +3463,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3478,13 @@
         <v>27247</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -3532,13 +3493,13 @@
         <v>21310</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -3547,13 +3508,13 @@
         <v>48557</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3529,13 @@
         <v>587780</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H30" s="7">
         <v>600</v>
@@ -3583,13 +3544,13 @@
         <v>616909</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>1168</v>
@@ -3598,13 +3559,13 @@
         <v>1204689</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,7 +3621,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3708,7 +3669,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3684,13 @@
         <v>32447</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H33" s="7">
         <v>27</v>
@@ -3738,13 +3699,13 @@
         <v>28976</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="M33" s="7">
         <v>59</v>
@@ -3753,13 +3714,13 @@
         <v>61423</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3735,13 @@
         <v>711348</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H34" s="7">
         <v>718</v>
@@ -3789,13 +3750,13 @@
         <v>754535</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="M34" s="7">
         <v>1422</v>
@@ -3804,13 +3765,13 @@
         <v>1465883</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,7 +3845,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3899,7 +3860,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3914,7 +3875,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3890,13 @@
         <v>136019</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H37" s="7">
         <v>88</v>
@@ -3944,13 +3905,13 @@
         <v>91534</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M37" s="7">
         <v>226</v>
@@ -3959,13 +3920,13 @@
         <v>227554</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,16 +3938,16 @@
         <v>3076</v>
       </c>
       <c r="D38" s="7">
-        <v>3140525</v>
+        <v>3140524</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H38" s="7">
         <v>3209</v>
@@ -3995,13 +3956,13 @@
         <v>3287664</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M38" s="7">
         <v>6285</v>
@@ -4010,13 +3971,13 @@
         <v>6428187</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,7 +3989,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>35</v>
@@ -4072,7 +4033,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4096,7 +4057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4756E0-45AE-4660-ACCA-C2763787A5D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E601FF9F-0D45-4F8B-A237-5F0C757BE6FC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4113,7 +4074,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4218,39 +4179,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,39 +4224,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,39 +4269,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,39 +4314,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,7 +4384,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4453,13 +4414,13 @@
         <v>16486</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -4468,13 +4429,13 @@
         <v>6334</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4483,13 +4444,13 @@
         <v>22820</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4465,13 @@
         <v>489041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>474</v>
@@ -4519,13 +4480,13 @@
         <v>517431</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>931</v>
@@ -4534,13 +4495,13 @@
         <v>1006472</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,7 +4575,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4629,7 +4590,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4659,13 +4620,13 @@
         <v>7501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4674,13 +4635,13 @@
         <v>5237</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -4689,13 +4650,13 @@
         <v>12738</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4671,13 @@
         <v>316545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>312</v>
@@ -4725,13 +4686,13 @@
         <v>335783</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>624</v>
@@ -4740,13 +4701,13 @@
         <v>652328</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4835,7 +4796,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4850,7 +4811,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4826,13 @@
         <v>14494</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4880,13 +4841,13 @@
         <v>14202</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -4895,13 +4856,13 @@
         <v>28696</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4877,13 @@
         <v>654226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H18" s="7">
         <v>614</v>
@@ -4931,13 +4892,13 @@
         <v>661994</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="M18" s="7">
         <v>1227</v>
@@ -4946,13 +4907,13 @@
         <v>1316220</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,7 +4969,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5026,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5041,7 +5002,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5056,7 +5017,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5032,13 @@
         <v>3269</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -5086,13 +5047,13 @@
         <v>970</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -5101,13 +5062,13 @@
         <v>4240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5083,13 @@
         <v>209349</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
         <v>211</v>
@@ -5137,10 +5098,10 @@
         <v>218621</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>31</v>
@@ -5152,13 +5113,13 @@
         <v>427969</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,7 +5175,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5232,7 +5193,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5262,7 +5223,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5238,13 @@
         <v>12610</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5292,13 +5253,13 @@
         <v>2961</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5307,13 +5268,13 @@
         <v>15571</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5289,13 @@
         <v>261371</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>265</v>
@@ -5343,13 +5304,13 @@
         <v>275135</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>515</v>
@@ -5358,13 +5319,13 @@
         <v>536506</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,7 +5381,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5438,7 +5399,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5468,7 +5429,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5444,13 @@
         <v>7164</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5498,13 +5459,13 @@
         <v>7356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -5513,13 +5474,13 @@
         <v>14520</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5495,13 @@
         <v>655624</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>73</v>
+        <v>279</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H30" s="7">
         <v>629</v>
@@ -5549,13 +5510,13 @@
         <v>686497</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="M30" s="7">
         <v>1240</v>
@@ -5564,13 +5525,13 @@
         <v>1342121</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,7 +5587,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5644,7 +5605,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5659,7 +5620,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5674,7 +5635,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5650,13 @@
         <v>12129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -5704,13 +5665,13 @@
         <v>5408</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M33" s="7">
         <v>15</v>
@@ -5719,13 +5680,13 @@
         <v>17537</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,10 +5701,10 @@
         <v>766969</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>295</v>
@@ -5776,7 +5737,7 @@
         <v>300</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,7 +5811,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5865,7 +5826,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5880,7 +5841,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5856,13 @@
         <v>73653</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>301</v>
+        <v>106</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>302</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>303</v>
+        <v>178</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -5910,13 +5871,13 @@
         <v>42468</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M37" s="7">
         <v>106</v>
@@ -5925,13 +5886,13 @@
         <v>116121</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5907,13 @@
         <v>3353126</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>310</v>
+        <v>115</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>311</v>
+        <v>187</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H38" s="7">
         <v>3255</v>
@@ -5961,13 +5922,13 @@
         <v>3511448</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M38" s="7">
         <v>6398</v>
@@ -5976,13 +5937,13 @@
         <v>6864573</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,7 +5999,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6062,7 +6023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93C67CE-4702-4D98-95AD-4014DBCE79D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4950E566-EC40-410E-9804-805363E473F4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6079,7 +6040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6192,7 +6153,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6207,7 +6168,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6222,7 +6183,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,13 +6198,13 @@
         <v>7283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6258,7 +6219,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -6267,13 +6228,13 @@
         <v>9079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,13 +6249,13 @@
         <v>286478</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H6" s="7">
         <v>275</v>
@@ -6303,10 +6264,10 @@
         <v>286908</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>330</v>
+        <v>97</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
@@ -6318,13 +6279,13 @@
         <v>573385</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,7 +6359,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6413,7 +6374,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6443,13 +6404,13 @@
         <v>13283</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -6458,13 +6419,13 @@
         <v>7724</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -6473,13 +6434,13 @@
         <v>21007</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,13 +6455,13 @@
         <v>489292</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>477</v>
@@ -6509,13 +6470,13 @@
         <v>515360</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>939</v>
@@ -6524,13 +6485,13 @@
         <v>1004652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,7 +6580,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6634,7 +6595,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6610,13 @@
         <v>4305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -6664,13 +6625,13 @@
         <v>3415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>23</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6679,13 +6640,13 @@
         <v>7720</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6661,13 @@
         <v>314260</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>329</v>
@@ -6715,13 +6676,13 @@
         <v>332894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>34</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>31</v>
       </c>
       <c r="M14" s="7">
         <v>659</v>
@@ -6730,13 +6691,13 @@
         <v>647154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6771,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6840,7 +6801,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6816,13 @@
         <v>9558</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -6870,13 +6831,13 @@
         <v>5246</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -6885,13 +6846,13 @@
         <v>14804</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6867,13 @@
         <v>360406</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>369</v>
+        <v>265</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H18" s="7">
         <v>353</v>
@@ -6921,13 +6882,13 @@
         <v>382037</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M18" s="7">
         <v>697</v>
@@ -6936,13 +6897,13 @@
         <v>742443</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,7 +6959,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7016,7 +6977,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7031,7 +6992,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>374</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7046,7 +7007,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7022,13 @@
         <v>4640</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>187</v>
+        <v>370</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>14</v>
+        <v>371</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -7082,7 +7043,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -7091,13 +7052,13 @@
         <v>6645</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,7 +7073,7 @@
         <v>206581</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>378</v>
@@ -7130,7 +7091,7 @@
         <v>74</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>31</v>
@@ -7142,13 +7103,13 @@
         <v>423163</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,7 +7165,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7222,7 +7183,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7237,7 +7198,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7267,13 +7228,13 @@
         <v>3883</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>184</v>
+        <v>385</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7282,13 +7243,13 @@
         <v>4415</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>384</v>
+        <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -7297,13 +7258,13 @@
         <v>8298</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>386</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,13 +7279,13 @@
         <v>259240</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>194</v>
+        <v>387</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>387</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>259</v>
@@ -7333,13 +7294,13 @@
         <v>268700</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>389</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>390</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>514</v>
@@ -7348,13 +7309,13 @@
         <v>527940</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>391</v>
+        <v>267</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,7 +7371,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7428,7 +7389,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7458,7 +7419,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,13 +7434,13 @@
         <v>11415</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>393</v>
+        <v>277</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -7488,13 +7449,13 @@
         <v>10274</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>290</v>
+        <v>122</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -7503,13 +7464,13 @@
         <v>21689</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>399</v>
+        <v>248</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,13 +7485,13 @@
         <v>645143</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H30" s="7">
         <v>637</v>
@@ -7539,13 +7500,13 @@
         <v>681020</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M30" s="7">
         <v>1207</v>
@@ -7554,13 +7515,13 @@
         <v>1326163</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>408</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7616,7 +7577,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7649,7 +7610,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7664,7 +7625,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,13 +7640,13 @@
         <v>12113</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -7694,13 +7655,13 @@
         <v>10645</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>220</v>
+        <v>404</v>
       </c>
       <c r="M33" s="7">
         <v>22</v>
@@ -7709,13 +7670,13 @@
         <v>22757</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>411</v>
+        <v>243</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>127</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,13 +7691,13 @@
         <v>766470</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="H34" s="7">
         <v>746</v>
@@ -7745,13 +7706,13 @@
         <v>815522</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>227</v>
+        <v>407</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M34" s="7">
         <v>1483</v>
@@ -7760,13 +7721,13 @@
         <v>1581993</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>133</v>
+        <v>341</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,7 +7801,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7855,7 +7816,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -7870,7 +7831,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,13 +7846,13 @@
         <v>66480</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>400</v>
+        <v>68</v>
       </c>
       <c r="H37" s="7">
         <v>41</v>
@@ -7900,13 +7861,13 @@
         <v>45519</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>411</v>
+        <v>102</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="M37" s="7">
         <v>107</v>
@@ -7915,13 +7876,13 @@
         <v>111999</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,13 +7897,13 @@
         <v>3327870</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H38" s="7">
         <v>3297</v>
@@ -7951,13 +7912,13 @@
         <v>3499023</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M38" s="7">
         <v>6462</v>
@@ -7966,13 +7927,13 @@
         <v>6826893</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>424</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,7 +7989,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAC976-B41C-4316-8102-A93D4545E4EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C825C65-F5FA-4773-A47B-2B4380B1AECB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8069,7 +8030,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8182,7 +8143,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8197,7 +8158,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8212,7 +8173,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,13 +8188,13 @@
         <v>3625</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -8242,13 +8203,13 @@
         <v>3836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>427</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -8257,13 +8218,13 @@
         <v>7462</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>432</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>433</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8278,13 +8239,13 @@
         <v>256673</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H6" s="7">
         <v>530</v>
@@ -8293,10 +8254,10 @@
         <v>267567</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>296</v>
@@ -8308,13 +8269,13 @@
         <v>524238</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>439</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>440</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8403,7 +8364,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8418,7 +8379,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,13 +8394,13 @@
         <v>10765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -8448,13 +8409,13 @@
         <v>10612</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>211</v>
+        <v>439</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -8466,10 +8427,10 @@
         <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>366</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8484,13 +8445,13 @@
         <v>507462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H10" s="7">
         <v>698</v>
@@ -8499,13 +8460,13 @@
         <v>541451</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>444</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M10" s="7">
         <v>1068</v>
@@ -8517,10 +8478,10 @@
         <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>446</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8609,7 +8570,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8624,7 +8585,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8639,13 +8600,13 @@
         <v>10769</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -8654,13 +8615,13 @@
         <v>12054</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -8669,13 +8630,13 @@
         <v>22823</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>457</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8690,13 +8651,13 @@
         <v>311471</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H14" s="7">
         <v>514</v>
@@ -8705,13 +8666,13 @@
         <v>361230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>858</v>
@@ -8720,13 +8681,13 @@
         <v>672701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>463</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8800,7 +8761,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8815,7 +8776,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8830,7 +8791,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8845,13 +8806,13 @@
         <v>13199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -8860,13 +8821,13 @@
         <v>14176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -8875,13 +8836,13 @@
         <v>27375</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>48</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8896,13 +8857,13 @@
         <v>309041</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H18" s="7">
         <v>579</v>
@@ -8911,13 +8872,13 @@
         <v>414380</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M18" s="7">
         <v>855</v>
@@ -8926,13 +8887,13 @@
         <v>723421</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>56</v>
+        <v>475</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8988,7 +8949,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9006,7 +8967,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9015,13 +8976,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>482</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9030,13 +8991,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9051,13 +9012,13 @@
         <v>3830</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -9066,13 +9027,13 @@
         <v>3731</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -9081,13 +9042,13 @@
         <v>7561</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9102,13 +9063,13 @@
         <v>192918</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H22" s="7">
         <v>481</v>
@@ -9117,13 +9078,13 @@
         <v>227315</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>754</v>
@@ -9132,13 +9093,13 @@
         <v>420232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9194,7 +9155,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9212,7 +9173,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>482</v>
+        <v>360</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9227,7 +9188,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9236,13 +9197,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9257,13 +9218,13 @@
         <v>13080</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>495</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -9272,13 +9233,13 @@
         <v>10091</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -9287,13 +9248,13 @@
         <v>23171</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>504</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9308,13 +9269,13 @@
         <v>264143</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="H26" s="7">
         <v>437</v>
@@ -9323,13 +9284,13 @@
         <v>264813</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>784</v>
@@ -9338,13 +9299,13 @@
         <v>528956</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9400,7 +9361,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9418,7 +9379,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9448,7 +9409,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9463,13 +9424,13 @@
         <v>17672</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -9478,13 +9439,13 @@
         <v>24144</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>335</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>514</v>
+        <v>292</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>515</v>
+        <v>264</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -9493,13 +9454,13 @@
         <v>41816</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>517</v>
+        <v>414</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9514,13 +9475,13 @@
         <v>608183</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H30" s="7">
         <v>925</v>
@@ -9529,13 +9490,13 @@
         <v>778337</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>520</v>
+        <v>270</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>521</v>
+        <v>300</v>
       </c>
       <c r="M30" s="7">
         <v>1503</v>
@@ -9544,13 +9505,13 @@
         <v>1386520</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>496</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9606,7 +9567,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9624,7 +9585,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9633,13 +9594,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>306</v>
+        <v>514</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9648,13 +9609,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>132</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9669,13 +9630,13 @@
         <v>15943</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H33" s="7">
         <v>27</v>
@@ -9684,13 +9645,13 @@
         <v>19031</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>326</v>
+        <v>495</v>
       </c>
       <c r="M33" s="7">
         <v>46</v>
@@ -9699,13 +9660,13 @@
         <v>34973</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>527</v>
+        <v>308</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>528</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9720,13 +9681,13 @@
         <v>843485</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="H34" s="7">
         <v>1034</v>
@@ -9735,13 +9696,13 @@
         <v>846641</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>534</v>
+        <v>271</v>
       </c>
       <c r="M34" s="7">
         <v>1777</v>
@@ -9750,13 +9711,13 @@
         <v>1690127</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>331</v>
+        <v>524</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>535</v>
+        <v>382</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9830,7 +9791,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -9839,13 +9800,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>132</v>
+        <v>515</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -9854,13 +9815,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9875,13 +9836,13 @@
         <v>88883</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="H37" s="7">
         <v>154</v>
@@ -9890,13 +9851,13 @@
         <v>97675</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>543</v>
+        <v>145</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M37" s="7">
         <v>271</v>
@@ -9905,13 +9866,13 @@
         <v>186558</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>545</v>
+        <v>63</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9926,13 +9887,13 @@
         <v>3293375</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="H38" s="7">
         <v>5198</v>
@@ -9941,13 +9902,13 @@
         <v>3701734</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="M38" s="7">
         <v>8454</v>
@@ -9956,13 +9917,13 @@
         <v>6995110</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10018,7 +9979,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1408-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09308A8D-F2DB-439A-AF89-6EFC41221C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0220198-AE63-41DC-92E1-5F07F83CDAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DD21CA6-3CAC-42F1-9B85-017EDAB2E8EF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2E92F347-D756-41F9-9AA7-E533403DBA42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="492">
   <si>
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -575,7 +575,52 @@
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>3,26%</t>
@@ -680,838 +725,796 @@
     <t>98,93%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D14D41-9F3B-4DD9-AD1D-C3E6AA0E1618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1CCA26-5051-4B60-8DC6-058263F2A194}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3335,7 +3338,7 @@
         <v>3076</v>
       </c>
       <c r="D29" s="7">
-        <v>3140525</v>
+        <v>3140524</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>168</v>
@@ -3350,7 +3353,7 @@
         <v>3209</v>
       </c>
       <c r="I29" s="7">
-        <v>3287664</v>
+        <v>3287663</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>170</v>
@@ -3365,7 +3368,7 @@
         <v>6285</v>
       </c>
       <c r="N29" s="7">
-        <v>6428186</v>
+        <v>6428187</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>173</v>
@@ -3386,7 +3389,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -3401,7 +3404,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -3416,7 +3419,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -3454,7 +3457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D84977-023C-417F-8CCD-1E39DFC44AD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103D1EE7-B333-4018-AD9B-D4AEAC36BD99}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3572,43 +3575,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3836</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4058</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7894</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,43 +3626,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D5" s="7">
+        <v>290902</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="I5" s="7">
+        <v>283187</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>531</v>
+      </c>
+      <c r="N5" s="7">
+        <v>574089</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,43 +3677,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3736,13 @@
         <v>16486</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3730,13 +3751,13 @@
         <v>6334</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -3745,13 +3766,13 @@
         <v>22820</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3787,13 @@
         <v>489041</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>474</v>
@@ -3781,13 +3802,13 @@
         <v>517431</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M8" s="7">
         <v>931</v>
@@ -3796,13 +3817,13 @@
         <v>1006472</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,10 +3894,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3885,13 +3906,13 @@
         <v>5237</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3900,13 +3921,13 @@
         <v>12738</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,10 +3945,10 @@
         <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="H11" s="7">
         <v>312</v>
@@ -3936,13 +3957,13 @@
         <v>335783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -3951,13 +3972,13 @@
         <v>652328</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,49 +4040,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>14494</v>
+        <v>10657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>14202</v>
+        <v>10144</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>28696</v>
+        <v>20801</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,49 +4091,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>613</v>
+        <v>335</v>
       </c>
       <c r="D14" s="7">
-        <v>654226</v>
+        <v>363325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
-        <v>614</v>
+        <v>361</v>
       </c>
       <c r="I14" s="7">
-        <v>661994</v>
+        <v>378807</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
-        <v>1227</v>
+        <v>696</v>
       </c>
       <c r="N14" s="7">
-        <v>1316220</v>
+        <v>742132</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,10 +4142,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -4136,10 +4157,10 @@
         <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4151,10 +4172,10 @@
         <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -4180,13 +4201,13 @@
         <v>3269</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4195,13 +4216,13 @@
         <v>970</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4210,13 +4231,13 @@
         <v>4240</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4252,13 @@
         <v>209349</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -4246,10 +4267,10 @@
         <v>218621</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>25</v>
@@ -4261,13 +4282,13 @@
         <v>427969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4356,13 @@
         <v>12610</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4350,13 +4371,13 @@
         <v>2961</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -4365,13 +4386,13 @@
         <v>15571</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4407,13 @@
         <v>261371</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -4401,13 +4422,13 @@
         <v>275135</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>515</v>
@@ -4416,13 +4437,13 @@
         <v>536506</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4511,13 @@
         <v>7164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -4505,13 +4526,13 @@
         <v>7356</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -4520,13 +4541,13 @@
         <v>14520</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4562,13 @@
         <v>655624</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H23" s="7">
         <v>629</v>
@@ -4556,13 +4577,13 @@
         <v>686497</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>1240</v>
@@ -4571,13 +4592,13 @@
         <v>1342121</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4666,13 @@
         <v>12129</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4660,13 +4681,13 @@
         <v>5408</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4675,13 +4696,13 @@
         <v>17537</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,10 +4717,10 @@
         <v>766969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>117</v>
@@ -4711,13 +4732,13 @@
         <v>815987</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="M26" s="7">
         <v>1457</v>
@@ -4726,13 +4747,13 @@
         <v>1582956</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4821,13 @@
         <v>73653</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="H28" s="7">
         <v>40</v>
@@ -4815,13 +4836,13 @@
         <v>42468</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="M28" s="7">
         <v>106</v>
@@ -4830,13 +4851,13 @@
         <v>116121</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4872,13 @@
         <v>3353126</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="H29" s="7">
         <v>3255</v>
@@ -4866,13 +4887,13 @@
         <v>3511448</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>6398</v>
@@ -4881,13 +4902,13 @@
         <v>6864573</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,7 +4988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF93E71-0688-4B86-AED3-BA35B41B4B2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B1F6E2-1B1A-4901-BC63-D97DB60A021E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4984,7 +5005,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5094,10 +5115,10 @@
         <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5106,13 +5127,13 @@
         <v>1795</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -5121,10 +5142,10 @@
         <v>9079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>37</v>
@@ -5145,10 +5166,10 @@
         <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="H5" s="7">
         <v>275</v>
@@ -5157,10 +5178,10 @@
         <v>286908</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>25</v>
@@ -5172,13 +5193,13 @@
         <v>573385</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,10 +5267,10 @@
         <v>13283</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>36</v>
@@ -5261,10 +5282,10 @@
         <v>7724</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>74</v>
@@ -5276,13 +5297,13 @@
         <v>21007</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5318,13 @@
         <v>489292</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>477</v>
@@ -5312,13 +5333,13 @@
         <v>515360</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
         <v>939</v>
@@ -5327,13 +5348,13 @@
         <v>1004652</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5422,13 @@
         <v>4305</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5416,13 +5437,13 @@
         <v>3415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5431,13 +5452,13 @@
         <v>7720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5473,13 @@
         <v>314260</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>329</v>
@@ -5467,13 +5488,13 @@
         <v>332894</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>659</v>
@@ -5482,13 +5503,13 @@
         <v>647154</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5577,13 @@
         <v>9558</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>335</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5571,13 +5592,13 @@
         <v>5246</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5589,10 +5610,10 @@
         <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5628,13 @@
         <v>360406</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>343</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>353</v>
@@ -5622,13 +5643,13 @@
         <v>382037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>697</v>
@@ -5640,10 +5661,10 @@
         <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,10 +5735,10 @@
         <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5732,7 +5753,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5741,13 +5762,13 @@
         <v>6645</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,10 +5786,10 @@
         <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>221</v>
@@ -5780,7 +5801,7 @@
         <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>25</v>
@@ -5792,13 +5813,13 @@
         <v>423163</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5887,13 @@
         <v>3883</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5881,13 +5902,13 @@
         <v>4415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5896,7 +5917,7 @@
         <v>8298</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>107</v>
@@ -5917,13 +5938,13 @@
         <v>259240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -5932,13 +5953,13 @@
         <v>268700</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="M20" s="7">
         <v>514</v>
@@ -5947,7 +5968,7 @@
         <v>527940</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>175</v>
@@ -6021,13 +6042,13 @@
         <v>11415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -6036,13 +6057,13 @@
         <v>10274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -6051,13 +6072,13 @@
         <v>21689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6093,13 @@
         <v>645143</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>637</v>
@@ -6087,13 +6108,13 @@
         <v>681020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>1207</v>
@@ -6102,10 +6123,10 @@
         <v>1326163</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>27</v>
@@ -6176,13 +6197,13 @@
         <v>12113</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6191,13 +6212,13 @@
         <v>10645</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -6206,13 +6227,13 @@
         <v>22757</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,13 +6248,13 @@
         <v>766470</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>329</v>
+        <v>192</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H26" s="7">
         <v>746</v>
@@ -6242,13 +6263,13 @@
         <v>815522</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>1483</v>
@@ -6257,10 +6278,10 @@
         <v>1581993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>61</v>
@@ -6331,10 +6352,10 @@
         <v>66480</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>69</v>
@@ -6346,13 +6367,13 @@
         <v>45519</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="M28" s="7">
         <v>107</v>
@@ -6361,13 +6382,13 @@
         <v>111999</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6403,13 @@
         <v>3327870</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H29" s="7">
         <v>3297</v>
@@ -6397,13 +6418,13 @@
         <v>3499023</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="M29" s="7">
         <v>6462</v>
@@ -6412,13 +6433,13 @@
         <v>6826893</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,7 +6519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778DAB07-64D5-46C1-836E-2E3F5543E961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618F6CBD-4688-4177-B35B-57BCFE7E7555}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6515,7 +6536,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6619,46 +6640,46 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>3625</v>
+        <v>3911</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>337</v>
+        <v>273</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>166</v>
+        <v>380</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>3836</v>
+        <v>3927</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>402</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>404</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>7462</v>
+        <v>7838</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,46 +6691,46 @@
         <v>325</v>
       </c>
       <c r="D5" s="7">
-        <v>256673</v>
+        <v>307532</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>386</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>530</v>
       </c>
       <c r="I5" s="7">
-        <v>267567</v>
+        <v>285708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>407</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>408</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M5" s="7">
         <v>855</v>
       </c>
       <c r="N5" s="7">
-        <v>524238</v>
+        <v>593239</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,7 +6742,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -6736,7 +6757,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -6751,7 +6772,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -6774,46 +6795,46 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>10765</v>
+        <v>10104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>10612</v>
+        <v>9707</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>418</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>21377</v>
+        <v>19810</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>414</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>415</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6825,46 +6846,46 @@
         <v>370</v>
       </c>
       <c r="D8" s="7">
-        <v>507462</v>
+        <v>507289</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>698</v>
       </c>
       <c r="I8" s="7">
-        <v>541451</v>
+        <v>502951</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>423</v>
       </c>
       <c r="M8" s="7">
         <v>1068</v>
       </c>
       <c r="N8" s="7">
-        <v>1048913</v>
+        <v>1010241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>419</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>420</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6897,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -6891,7 +6912,7 @@
         <v>713</v>
       </c>
       <c r="I9" s="7">
-        <v>552063</v>
+        <v>512658</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -6906,7 +6927,7 @@
         <v>1094</v>
       </c>
       <c r="N9" s="7">
-        <v>1070290</v>
+        <v>1030051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -6929,46 +6950,46 @@
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>10769</v>
+        <v>10260</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>424</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>12054</v>
+        <v>11187</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>426</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>22823</v>
+        <v>21448</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>427</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,46 +7001,46 @@
         <v>344</v>
       </c>
       <c r="D11" s="7">
-        <v>311471</v>
+        <v>305790</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>429</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="H11" s="7">
         <v>514</v>
       </c>
       <c r="I11" s="7">
-        <v>361230</v>
+        <v>337941</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>431</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>858</v>
       </c>
       <c r="N11" s="7">
-        <v>672701</v>
+        <v>643730</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>432</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,7 +7052,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -7046,7 +7067,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -7061,7 +7082,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -7084,46 +7105,46 @@
         <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>13199</v>
+        <v>12762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>14176</v>
+        <v>13046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>27375</v>
+        <v>25808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,46 +7156,46 @@
         <v>276</v>
       </c>
       <c r="D14" s="7">
-        <v>309041</v>
+        <v>299795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
         <v>579</v>
       </c>
       <c r="I14" s="7">
-        <v>414380</v>
+        <v>462672</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>855</v>
       </c>
       <c r="N14" s="7">
-        <v>723421</v>
+        <v>762466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>43</v>
+        <v>444</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,7 +7207,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -7201,7 +7222,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -7216,7 +7237,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -7239,46 +7260,46 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>3830</v>
+        <v>3499</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>3731</v>
+        <v>3369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>444</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>7561</v>
+        <v>6868</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>352</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,13 +7311,13 @@
         <v>273</v>
       </c>
       <c r="D17" s="7">
-        <v>192918</v>
+        <v>175243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>451</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>123</v>
@@ -7305,31 +7326,31 @@
         <v>481</v>
       </c>
       <c r="I17" s="7">
-        <v>227315</v>
+        <v>204506</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M17" s="7">
         <v>754</v>
       </c>
       <c r="N17" s="7">
-        <v>420233</v>
+        <v>379749</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>356</v>
+        <v>454</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,7 +7362,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -7356,7 +7377,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231046</v>
+        <v>207875</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -7371,7 +7392,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427794</v>
+        <v>386617</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -7394,46 +7415,46 @@
         <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>13080</v>
+        <v>12493</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
       </c>
       <c r="I19" s="7">
-        <v>10091</v>
+        <v>9383</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>456</v>
+        <v>196</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
       </c>
       <c r="N19" s="7">
-        <v>23171</v>
+        <v>21876</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>338</v>
+        <v>462</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,46 +7466,46 @@
         <v>347</v>
       </c>
       <c r="D20" s="7">
-        <v>264143</v>
+        <v>257143</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H20" s="7">
         <v>437</v>
       </c>
       <c r="I20" s="7">
-        <v>264814</v>
+        <v>247004</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>463</v>
+        <v>204</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M20" s="7">
         <v>784</v>
       </c>
       <c r="N20" s="7">
-        <v>528956</v>
+        <v>504147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7496,7 +7517,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -7511,7 +7532,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -7526,7 +7547,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -7549,46 +7570,46 @@
         <v>19</v>
       </c>
       <c r="D22" s="7">
-        <v>17672</v>
+        <v>17048</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>305</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
       </c>
       <c r="I22" s="7">
-        <v>24144</v>
+        <v>21970</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
       </c>
       <c r="N22" s="7">
-        <v>41816</v>
+        <v>39018</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,46 +7621,46 @@
         <v>578</v>
       </c>
       <c r="D23" s="7">
-        <v>608183</v>
+        <v>605437</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>474</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>925</v>
       </c>
       <c r="I23" s="7">
-        <v>778337</v>
+        <v>825712</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>253</v>
+        <v>62</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>1503</v>
       </c>
       <c r="N23" s="7">
-        <v>1386520</v>
+        <v>1431149</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,7 +7672,7 @@
         <v>597</v>
       </c>
       <c r="D24" s="7">
-        <v>625855</v>
+        <v>622485</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>28</v>
@@ -7666,7 +7687,7 @@
         <v>956</v>
       </c>
       <c r="I24" s="7">
-        <v>802481</v>
+        <v>847682</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>28</v>
@@ -7681,7 +7702,7 @@
         <v>1553</v>
       </c>
       <c r="N24" s="7">
-        <v>1428336</v>
+        <v>1470167</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>28</v>
@@ -7704,46 +7725,46 @@
         <v>19</v>
       </c>
       <c r="D25" s="7">
-        <v>15943</v>
+        <v>13615</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>479</v>
+        <v>56</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>480</v>
+        <v>215</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
       </c>
       <c r="I25" s="7">
-        <v>19031</v>
+        <v>15980</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>478</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>186</v>
+        <v>479</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
       </c>
       <c r="N25" s="7">
-        <v>34973</v>
+        <v>29595</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>481</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7755,46 +7776,46 @@
         <v>743</v>
       </c>
       <c r="D26" s="7">
-        <v>843485</v>
+        <v>915105</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>482</v>
+        <v>66</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>483</v>
+        <v>224</v>
       </c>
       <c r="H26" s="7">
         <v>1034</v>
       </c>
       <c r="I26" s="7">
-        <v>846641</v>
+        <v>699412</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>481</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>482</v>
       </c>
       <c r="M26" s="7">
         <v>1777</v>
       </c>
       <c r="N26" s="7">
-        <v>1690127</v>
+        <v>1614517</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>315</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7806,7 +7827,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>28</v>
@@ -7821,7 +7842,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -7836,7 +7857,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>28</v>
@@ -7859,46 +7880,46 @@
         <v>117</v>
       </c>
       <c r="D28" s="7">
-        <v>88883</v>
+        <v>83692</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>484</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>485</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="H28" s="7">
         <v>154</v>
       </c>
       <c r="I28" s="7">
-        <v>97675</v>
+        <v>88570</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M28" s="7">
         <v>271</v>
       </c>
       <c r="N28" s="7">
-        <v>186558</v>
+        <v>172262</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,46 +7931,46 @@
         <v>3256</v>
       </c>
       <c r="D29" s="7">
-        <v>3293375</v>
+        <v>3373334</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>104</v>
+        <v>488</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>47</v>
+        <v>340</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H29" s="7">
         <v>5198</v>
       </c>
       <c r="I29" s="7">
-        <v>3701734</v>
+        <v>3565904</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>418</v>
+        <v>490</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="M29" s="7">
         <v>8454</v>
       </c>
       <c r="N29" s="7">
-        <v>6995110</v>
+        <v>6939237</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>491</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7961,7 +7982,7 @@
         <v>3373</v>
       </c>
       <c r="D30" s="7">
-        <v>3382258</v>
+        <v>3457026</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -7976,7 +7997,7 @@
         <v>5352</v>
       </c>
       <c r="I30" s="7">
-        <v>3799409</v>
+        <v>3654474</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -7991,7 +8012,7 @@
         <v>8725</v>
       </c>
       <c r="N30" s="7">
-        <v>7181668</v>
+        <v>7111499</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
